--- a/Assets/Game/Content/Data/TipTable.xlsx
+++ b/Assets/Game/Content/Data/TipTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProj\Alchemy\Assets\Game\Content\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProj\NineLivesAtlier\Assets\Game\Content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61539EFE-2FA0-4FA1-B10C-DAD61DFB03D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C13CFA-47EF-4428-8525-7BE12CF5768B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -417,11 +416,11 @@
   </si>
   <si>
     <t>Tip_ChooseLevel_Sample</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Tip_ChooseLevel_Sample_Desc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -437,7 +436,7 @@
       </rPr>
       <t>Boss</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -463,7 +462,7 @@
       </rPr>
       <t>_Desc</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -479,7 +478,7 @@
       </rPr>
       <t>Tavern</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -505,73 +504,104 @@
       </rPr>
       <t>_Desc</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseLevel_Boss</t>
+  </si>
+  <si>
+    <t>ChooseLevel_Tavern</t>
+  </si>
+  <si>
+    <t>ChooseLevel_Sample</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ChooseLevel_Boss</t>
-  </si>
-  <si>
-    <t>ChooseLevel_Tavern</t>
-  </si>
-  <si>
-    <t>ChooseLevel_Sample</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Card_Sturdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Card_Reflect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Recycle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Sturdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Reflect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Recycle_Desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Sturdy_Desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Reflect_Desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Card_Focus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Focus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tip_Card_Focus_Desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card_Tailwind</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Card_Tailwind</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Card_Tailwind_Desc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Card_Windborne</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Card_Windborne_Desc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card_Windborne</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,15 +666,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -923,14 +954,14 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -958,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -972,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -986,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1014,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1042,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1070,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1084,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1098,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1112,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1126,7 +1157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1140,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1154,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1168,7 +1199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1182,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1196,7 +1227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1210,7 +1241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1224,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -1238,7 +1269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1252,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -1266,7 +1297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>135</v>
       </c>
@@ -1280,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -1294,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -1309,20 +1340,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="B19:C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
@@ -1330,7 +1361,7 @@
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1358,7 +1389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1372,7 +1403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1386,7 +1417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -1400,7 +1431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1414,7 +1445,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1428,7 +1459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1442,7 +1473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1456,7 +1487,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -1470,7 +1501,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -1484,7 +1515,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -1498,7 +1529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1512,7 +1543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -1526,7 +1557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
@@ -1540,7 +1571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>136</v>
       </c>
@@ -1554,7 +1585,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>137</v>
       </c>
@@ -1568,78 +1599,106 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>118</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>122</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>123</v>
       </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>124</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>125</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>126</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>